--- a/Jogos_da_Semana_FlashScore_2024-12-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-09.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -789,19 +789,19 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
@@ -825,7 +825,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -843,7 +843,7 @@
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -870,10 +870,10 @@
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX2" t="n">
         <v>6</v>
@@ -894,7 +894,7 @@
         <v>151</v>
       </c>
       <c r="BD2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -944,7 +944,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
@@ -1016,7 +1016,7 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1040,7 +1040,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
         <v>301</v>
@@ -1111,46 +1111,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1171,13 +1171,13 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1186,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
@@ -1196,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL4" t="n">
         <v>67</v>
       </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
       <c r="AM4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="n">
         <v>3.4</v>
@@ -1214,19 +1214,19 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1315,10 +1315,10 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1327,37 +1327,37 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.58</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1372,10 +1372,10 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1384,7 +1384,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
@@ -1393,22 +1393,22 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1420,10 +1420,10 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1438,7 +1438,7 @@
         <v>401</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1491,10 +1491,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1518,7 +1518,7 @@
         <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>4.75</v>
@@ -1564,10 +1564,10 @@
         <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="n">
         <v>3.6</v>
@@ -1653,13 +1653,13 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1677,10 +1677,10 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
         <v>2.35</v>
@@ -1698,10 +1698,10 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1713,7 +1713,7 @@
         <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1731,7 +1731,7 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
@@ -1746,7 +1746,7 @@
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
@@ -1761,7 +1761,7 @@
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
@@ -1770,7 +1770,7 @@
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1835,19 +1835,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="L8" t="n">
         <v>5.5</v>
@@ -1871,50 +1871,50 @@
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
         <v>4.33</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
@@ -1935,13 +1935,13 @@
         <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
         <v>151</v>
@@ -1953,7 +1953,7 @@
         <v>1.8</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
         <v>151</v>
@@ -2027,10 +2027,10 @@
         <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -2045,10 +2045,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2121,13 +2121,13 @@
         <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
         <v>2.25</v>
@@ -2145,7 +2145,7 @@
         <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2154,7 +2154,7 @@
         <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
@@ -2373,151 +2373,151 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.6</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V11" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
         <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP11" t="n">
         <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD11" t="inlineStr"/>
     </row>
@@ -2553,13 +2553,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>2.1</v>
@@ -2568,13 +2568,13 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2601,7 +2601,7 @@
         <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>7.5</v>
@@ -2634,16 +2634,16 @@
         <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL12" t="n">
         <v>41</v>
@@ -2652,7 +2652,7 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO12" t="n">
         <v>8</v>
@@ -3085,28 +3085,28 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.17</v>
@@ -3115,10 +3115,10 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S15" t="n">
         <v>1.29</v>
@@ -3136,19 +3136,19 @@
         <v>15</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
         <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
         <v>23</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>17</v>
@@ -3169,25 +3169,25 @@
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>15</v>
       </c>
       <c r="AM15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN15" t="n">
         <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3214,7 +3214,7 @@
         <v>351</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
@@ -3267,40 +3267,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.7</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3318,25 +3318,25 @@
         <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
@@ -3348,34 +3348,34 @@
         <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3396,16 +3396,16 @@
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
         <v>126</v>
@@ -3829,16 +3829,16 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -3989,7 +3989,7 @@
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J20" t="n">
         <v>4.33</v>
@@ -4001,10 +4001,10 @@
         <v>2.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -4013,10 +4013,10 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4161,22 +4161,22 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.25</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4191,16 +4191,16 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
         <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
         <v>1.62</v>
@@ -4209,13 +4209,13 @@
         <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -4227,10 +4227,10 @@
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>12</v>
@@ -4242,13 +4242,13 @@
         <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>34</v>
@@ -4263,10 +4263,10 @@
         <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4278,7 +4278,7 @@
         <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY21" t="n">
         <v>17</v>
@@ -4517,46 +4517,46 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O23" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="R23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="S23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U23" t="n">
         <v>1.33</v>
@@ -4565,34 +4565,34 @@
         <v>3.25</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>29</v>
       </c>
       <c r="AD23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE23" t="n">
         <v>10</v>
       </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>67</v>
@@ -4601,31 +4601,31 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
         <v>13</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>17</v>
       </c>
-      <c r="AL23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM23" t="n">
+      <c r="AN23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO23" t="n">
         <v>15</v>
       </c>
-      <c r="AN23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>19</v>
-      </c>
       <c r="AP23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR23" t="n">
         <v>51</v>
@@ -4634,34 +4634,34 @@
         <v>81</v>
       </c>
       <c r="AT23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV23" t="n">
         <v>34</v>
       </c>
       <c r="AW23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BC23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BD23" t="n">
         <v>151</v>
@@ -4702,13 +4702,13 @@
         <v>4.33</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
         <v>1.7</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K24" t="n">
         <v>2.6</v>
@@ -4720,19 +4720,19 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S24" t="n">
         <v>1.22</v>
@@ -4762,7 +4762,7 @@
         <v>29</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>21</v>
@@ -4771,7 +4771,7 @@
         <v>8.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
         <v>29</v>
@@ -4780,10 +4780,10 @@
         <v>81</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>9</v>
@@ -4810,7 +4810,7 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS24" t="n">
         <v>101</v>
@@ -4840,10 +4840,10 @@
         <v>23</v>
       </c>
       <c r="BB24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD24" t="n">
         <v>151</v>
@@ -4881,28 +4881,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4911,46 +4911,46 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
+        <v>9</v>
+      </c>
+      <c r="X25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
         <v>11</v>
       </c>
-      <c r="X25" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12</v>
-      </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4962,43 +4962,43 @@
         <v>201</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS25" t="n">
         <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
         <v>7.5</v>
@@ -5010,22 +5010,22 @@
         <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD25" t="n">
         <v>126</v>
@@ -5245,13 +5245,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
@@ -5263,10 +5263,10 @@
         <v>2.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
@@ -5275,10 +5275,10 @@
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S27" t="n">
         <v>1.36</v>
@@ -5305,13 +5305,13 @@
         <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
         <v>6.5</v>
@@ -5323,10 +5323,10 @@
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
@@ -5341,22 +5341,22 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN27" t="n">
         <v>5.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
@@ -5427,10 +5427,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
         <v>2.7</v>
@@ -5439,10 +5439,10 @@
         <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -5469,19 +5469,19 @@
         <v>2.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
         <v>26</v>
@@ -5493,7 +5493,7 @@
         <v>34</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
         <v>6</v>
@@ -5505,19 +5505,19 @@
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
         <v>23</v>
@@ -5532,7 +5532,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>51</v>
@@ -5541,7 +5541,7 @@
         <v>81</v>
       </c>
       <c r="AS28" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT28" t="n">
         <v>2.5</v>
@@ -5550,19 +5550,19 @@
         <v>8.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW28" t="n">
         <v>126</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
         <v>51</v>
@@ -5571,7 +5571,7 @@
         <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD28" t="n">
         <v>126</v>
@@ -6145,16 +6145,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
@@ -6181,7 +6181,7 @@
         <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T32" t="n">
         <v>2.5</v>
@@ -6202,13 +6202,13 @@
         <v>15</v>
       </c>
       <c r="Z32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="n">
         <v>41</v>
       </c>
       <c r="AB32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="n">
         <v>7.5</v>
@@ -6247,19 +6247,19 @@
         <v>6</v>
       </c>
       <c r="AO32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP32" t="n">
         <v>34</v>
       </c>
       <c r="AQ32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR32" t="n">
         <v>126</v>
       </c>
       <c r="AS32" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT32" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-09.xlsx
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1129,10 +1129,10 @@
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1168,13 +1168,13 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
         <v>5</v>
@@ -1190,28 +1190,28 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>81</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1238,10 +1238,10 @@
         <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1488,13 +1488,13 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1524,13 +1524,13 @@
         <v>4.75</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1545,20 +1545,20 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>101</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1573,10 +1573,10 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1600,10 +1600,10 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1683,10 +1683,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1704,13 +1704,13 @@
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
         <v>26</v>
@@ -1719,7 +1719,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1728,34 +1728,34 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>11</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1764,7 +1764,7 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>251</v>
@@ -1779,13 +1779,13 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>29</v>
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.67</v>
@@ -1917,7 +1917,7 @@
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>19</v>
@@ -2030,7 +2030,7 @@
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -2045,10 +2045,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2121,7 +2121,7 @@
         <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2145,7 +2145,7 @@
         <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2154,7 +2154,7 @@
         <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
@@ -2553,13 +2553,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J12" t="n">
         <v>2.1</v>
@@ -2568,7 +2568,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2583,25 +2583,25 @@
         <v>4</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.8</v>
       </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>7.5</v>
@@ -2610,13 +2610,13 @@
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>12</v>
@@ -2634,16 +2634,16 @@
         <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="n">
         <v>41</v>
@@ -2652,7 +2652,7 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO12" t="n">
         <v>8</v>
@@ -2670,7 +2670,7 @@
         <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
@@ -2695,7 +2695,7 @@
         <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>
@@ -3115,10 +3115,10 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S15" t="n">
         <v>1.29</v>
@@ -5436,13 +5436,13 @@
         <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -5484,7 +5484,7 @@
         <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="n">
         <v>23</v>
@@ -5517,7 +5517,7 @@
         <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
         <v>23</v>
@@ -5541,7 +5541,7 @@
         <v>81</v>
       </c>
       <c r="AS28" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT28" t="n">
         <v>2.5</v>
@@ -5559,7 +5559,7 @@
         <v>4.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>29</v>
@@ -5571,7 +5571,7 @@
         <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD28" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-09.xlsx
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1488,13 +1488,13 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.62</v>
@@ -1524,13 +1524,13 @@
         <v>4.75</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1555,7 +1555,7 @@
         <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
@@ -1573,10 +1573,10 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1585,7 +1585,7 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT6" t="n">
         <v>2.1</v>
@@ -1600,10 +1600,10 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1653,13 +1653,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1677,16 +1677,16 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1695,10 +1695,10 @@
         <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
@@ -1713,19 +1713,19 @@
         <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
@@ -1746,7 +1746,7 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>1.67</v>
@@ -1865,16 +1865,16 @@
         <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
         <v>3.25</v>
@@ -1886,13 +1886,13 @@
         <v>4.33</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
@@ -1917,7 +1917,7 @@
         <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
         <v>19</v>
@@ -1935,7 +1935,7 @@
         <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>
@@ -2015,28 +2015,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2057,68 +2057,68 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
         <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>34</v>
@@ -2127,34 +2127,34 @@
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
         <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>501</v>
@@ -2553,22 +2553,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2595,22 +2595,22 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2619,52 +2619,52 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
         <v>29</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>126</v>
@@ -2673,29 +2673,29 @@
         <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-09.xlsx
@@ -1853,16 +1853,16 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
         <v>4.2</v>
@@ -1877,10 +1877,10 @@
         <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W8" t="n">
         <v>4.33</v>
@@ -1889,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
@@ -1898,23 +1898,23 @@
         <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
@@ -1941,7 +1941,7 @@
         <v>41</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>151</v>
@@ -1950,10 +1950,10 @@
         <v>501</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AU8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
         <v>151</v>
